--- a/data/Female_DRI.xlsx
+++ b/data/Female_DRI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -499,6 +499,128 @@
     </xf>
   </cellXfs>
   <cellStyles count="243">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -620,128 +742,6 @@
     <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1326,7 +1326,7 @@
         <v>0.6</v>
       </c>
       <c r="L3" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M3" s="1">
         <v>1.2</v>
@@ -1893,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="1">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L9" s="1">
         <v>400</v>
